--- a/BackTest/2020-01-20 BackTest REP.xlsx
+++ b/BackTest/2020-01-20 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -10351,7 +10351,7 @@
         <v>-1131.928041119946</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1144.274341119946</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1144.274341119946</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-131.4493375201902</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-26.84813752019022</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-627.2209618572556</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-100.7399618572556</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>1564.570838142744</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>3428.051838142744</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>3642.122648626145</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>3642.122648626145</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>3642.122648626145</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>3290.747648626145</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>3379.486048626145</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>3775.718230174457</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>4627.570848626146</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>6288.02046323528</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>5615.872998762732</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>6108.133397613967</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>5759.617697613967</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>5524.075097613967</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>5228.272897613967</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>5003.473597613967</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>5003.473597613967</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>3851.021197613967</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>4792.122597613967</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>4456.215897613967</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>4452.420797613967</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>3212.363197613967</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>3442.234597613967</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>3733.951703374769</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>3718.441703374769</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>3633.248303374769</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>3498.588603374768</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>3498.588603374768</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>3143.032703374769</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>3190.170703374768</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>2930.199603374768</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>2926.853603374768</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>3413.819403374768</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19558,10 +19558,14 @@
         <v>977.0702561378671</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>15230</v>
+      </c>
+      <c r="J581" t="n">
+        <v>15230</v>
+      </c>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
@@ -19591,11 +19595,19 @@
         <v>977.0702561378671</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>15230</v>
+      </c>
+      <c r="J582" t="n">
+        <v>15230</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19624,12 +19636,14 @@
         <v>910.2259561378671</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I583" t="n">
         <v>15230</v>
       </c>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>15230</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -19663,12 +19677,14 @@
         <v>916.8550561378671</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I584" t="n">
         <v>15210</v>
       </c>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>15230</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19702,12 +19718,14 @@
         <v>917.1695561378671</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I585" t="n">
         <v>15230</v>
       </c>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>15230</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19741,12 +19759,14 @@
         <v>917.1695561378671</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I586" t="n">
         <v>15320</v>
       </c>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>15230</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19780,12 +19800,14 @@
         <v>895.1009561378671</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>15320</v>
       </c>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>15230</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19819,12 +19841,14 @@
         <v>953.6776561378671</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I588" t="n">
         <v>15240</v>
       </c>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>15230</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19858,12 +19882,14 @@
         <v>953.6776561378671</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>15320</v>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>15230</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19897,12 +19923,14 @@
         <v>1003.677656137867</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I590" t="n">
         <v>15320</v>
       </c>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>15230</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19936,12 +19964,14 @@
         <v>1005.990156137867</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I591" t="n">
         <v>15370</v>
       </c>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>15230</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19975,12 +20005,14 @@
         <v>950.3190561378671</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>15400</v>
       </c>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>15230</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19992,6 +20024,6 @@
       <c r="M592" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest REP.xlsx
+++ b/BackTest/2020-01-20 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2629,11 +2629,17 @@
         <v>-1046.300528793255</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>15900</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2668,17 @@
         <v>-1176.300028793255</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>15860</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2707,17 @@
         <v>-1176.300028793255</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15840</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2746,17 @@
         <v>-1176.300028793255</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15840</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2785,17 @@
         <v>-1196.644328793255</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>15840</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2824,17 @@
         <v>-1147.849928793255</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>15820</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2863,17 @@
         <v>-1147.849928793255</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>15880</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2902,17 @@
         <v>-1147.849928793255</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>15880</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2941,17 @@
         <v>-1149.841828793255</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>15880</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2980,17 @@
         <v>-1144.529328793255</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>15830</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3019,17 @@
         <v>-1136.687028793255</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>15850</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3058,17 @@
         <v>-533.6887287932555</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>15860</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3097,17 @@
         <v>-746.1208287932554</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>15880</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3136,17 @@
         <v>-354.9935287932555</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15810</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3175,17 @@
         <v>-331.6865287932554</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>15840</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3214,17 @@
         <v>-332.9565287932554</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>15850</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3253,17 @@
         <v>-332.9565287932554</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>15840</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3292,17 @@
         <v>-338.2631287932554</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>15840</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3331,17 @@
         <v>-338.2631287932554</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>15820</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3370,17 @@
         <v>-338.2631287932554</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>15820</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3409,17 @@
         <v>-333.7131287932554</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>15820</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3448,17 @@
         <v>-536.3883287932554</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>15860</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3487,17 @@
         <v>-294.4683287932554</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>15780</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3526,17 @@
         <v>-296.4780287932554</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>15840</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3565,17 @@
         <v>-296.4780287932554</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>15800</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3604,17 @@
         <v>-313.7798287932554</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>15800</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3643,17 @@
         <v>-313.7798287932554</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>15790</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3682,17 @@
         <v>-355.4401287932554</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>15790</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3721,17 @@
         <v>-712.7234287932554</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>15780</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3760,17 @@
         <v>-712.7234287932554</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>15750</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3799,17 @@
         <v>-745.9470287932554</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>15750</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3838,17 @@
         <v>-745.9470287932554</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>15700</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3877,17 @@
         <v>-745.8670287932554</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>15700</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3916,17 @@
         <v>-831.5332287932554</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>15770</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3955,17 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>15680</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3994,17 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>15800</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4033,17 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>15800</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4072,17 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>15800</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4111,17 @@
         <v>-723.8816287932553</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>15800</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4154,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4191,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4228,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4265,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4302,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4339,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4376,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4413,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4450,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4487,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4524,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4561,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4598,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4635,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4672,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4709,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4746,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4783,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4820,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4857,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4894,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4931,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +4968,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5005,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5042,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5079,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5116,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5153,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5190,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5227,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5264,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5301,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5338,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5375,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5412,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5449,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5486,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5523,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5560,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5597,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5634,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5671,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5708,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5745,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5782,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5819,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5856,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5893,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5930,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5967,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6004,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6041,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6078,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6115,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6152,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6189,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6222,17 @@
         <v>-953.8246287932549</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>15900</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6265,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6298,17 @@
         <v>-953.7433287932548</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>15900</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6341,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6374,17 @@
         <v>-986.7337287932548</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>15880</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6413,17 @@
         <v>-1105.583728793255</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>15850</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6452,17 @@
         <v>-688.4487287932548</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>15820</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6491,17 @@
         <v>-690.0687287932548</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>15830</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6530,17 @@
         <v>-800.0687287932548</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>15810</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6569,17 @@
         <v>-800.1687287932548</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>15800</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6608,17 @@
         <v>-816.8305287932548</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>15790</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6647,17 @@
         <v>-936.8305287932548</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>15780</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6686,17 @@
         <v>-976.8750287932547</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>15720</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6725,17 @@
         <v>-959.4608287932547</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>15700</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6764,17 @@
         <v>-959.4608287932547</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>15780</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6803,17 @@
         <v>-1159.460828793255</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>15780</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6842,17 @@
         <v>-1144.542228793255</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>15700</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6881,17 @@
         <v>-1144.542228793255</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>15750</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6920,17 @@
         <v>-1144.542228793255</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>15750</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6959,17 @@
         <v>-2241.132528793255</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>15750</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6998,17 @@
         <v>-1739.277128793255</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>15540</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +7037,17 @@
         <v>-1664.631828793255</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>15670</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +7076,17 @@
         <v>-1677.431828793255</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>15700</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +7115,17 @@
         <v>-1689.565728793255</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>15690</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +7154,17 @@
         <v>-1694.605728793255</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>15650</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +7193,17 @@
         <v>-1540.785728793255</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>15520</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +7232,17 @@
         <v>-1532.760128793255</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>15700</v>
+      </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +7271,17 @@
         <v>-1525.591128793255</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>15730</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +7310,17 @@
         <v>-1525.591128793255</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>15780</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +7349,17 @@
         <v>-1525.591128793255</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>15780</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +7388,17 @@
         <v>-1642.058428793255</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>15780</v>
+      </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7431,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +7464,17 @@
         <v>-1638.616928793255</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>15770</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +7503,17 @@
         <v>-1709.206928793255</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>15750</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +7542,17 @@
         <v>-2123.629519099378</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>15700</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +7581,17 @@
         <v>-2123.629519099378</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>15680</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7620,17 @@
         <v>-2361.422519099378</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>15680</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7659,17 @@
         <v>-2561.422519099378</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>15670</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7698,17 @@
         <v>-2423.171419099378</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>15660</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7737,17 @@
         <v>-2473.186419099378</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>15730</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7776,17 @@
         <v>-2282.986419099378</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>15720</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7815,17 @@
         <v>-2084.544619099378</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>15750</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7854,17 @@
         <v>-1813.453119099378</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>15860</v>
+      </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7897,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7934,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7971,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +8008,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +8045,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +8082,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +8119,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +8156,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +8193,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +8230,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +8267,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +8304,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +8341,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +8378,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8415,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8452,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8489,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8526,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8563,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8600,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8637,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8674,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8711,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8748,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8785,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8822,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8859,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8896,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8933,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8970,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +9007,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +9044,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +9081,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +9118,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +9155,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +9192,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +9229,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +9266,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +9303,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +9340,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +9377,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +9414,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +9451,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +9488,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +9525,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +9562,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +9599,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9636,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9673,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9710,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9747,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9784,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9821,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9858,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9895,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9932,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9969,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +10006,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +10043,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +10080,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +10117,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +10154,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +10191,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +10228,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +10265,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +10302,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +10339,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +10376,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +10413,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +10450,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +10487,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +10524,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +10561,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +10598,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +10635,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +10672,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +10709,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +10746,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10783,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +10820,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +10857,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10894,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10931,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10968,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +11005,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +11042,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +11079,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +11116,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +11153,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +11190,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +11227,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +11264,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +11301,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +11338,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +11375,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +11412,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +11449,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +11486,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +11523,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +11560,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +11597,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +11634,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +11671,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +11708,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +11745,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11782,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +11819,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +11856,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +11893,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11930,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +11967,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +12004,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +12041,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +12078,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +12115,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +12152,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +12189,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +12226,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +12263,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +12300,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,14 +12333,16 @@
         <v>-393.6223375201903</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
@@ -11176,7 +12368,7 @@
         <v>-393.6533375201903</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12232,10 +13424,14 @@
         <v>-468.4569375201904</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J359" t="n">
+        <v>16020</v>
+      </c>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
@@ -12268,8 +13464,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +13500,19 @@
         <v>-468.4569375201904</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J361" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +13541,19 @@
         <v>-468.4569375201904</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J362" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +13582,19 @@
         <v>-380.8129375201904</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J363" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +13623,19 @@
         <v>-567.0355375201905</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>16190</v>
+      </c>
+      <c r="J364" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +13664,19 @@
         <v>-566.9715375201905</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J365" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +13705,19 @@
         <v>-452.4274375201905</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>16190</v>
+      </c>
+      <c r="J366" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +13746,19 @@
         <v>-452.4594375201905</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>16200</v>
+      </c>
+      <c r="J367" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +13787,19 @@
         <v>-452.4914375201905</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>16190</v>
+      </c>
+      <c r="J368" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +13828,19 @@
         <v>-452.5234375201904</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>16180</v>
+      </c>
+      <c r="J369" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +13869,19 @@
         <v>-598.8809375201904</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>16170</v>
+      </c>
+      <c r="J370" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +13910,19 @@
         <v>-598.8489375201904</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>16090</v>
+      </c>
+      <c r="J371" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +13951,19 @@
         <v>-598.8809375201904</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>16160</v>
+      </c>
+      <c r="J372" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12697,8 +13995,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12730,8 +14034,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +14073,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12796,8 +14112,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12829,8 +14151,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12862,8 +14190,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12895,8 +14229,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12928,8 +14268,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12961,8 +14307,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12994,8 +14346,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13027,8 +14385,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13060,8 +14424,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13093,8 +14463,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13126,8 +14502,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13159,8 +14541,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13192,8 +14580,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13225,8 +14619,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13258,8 +14658,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13291,8 +14697,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13324,8 +14736,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13357,8 +14775,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13390,8 +14814,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13423,8 +14853,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13456,8 +14892,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13489,8 +14931,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13522,8 +14970,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13555,8 +15009,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13588,8 +15048,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13621,8 +15087,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13654,8 +15126,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13687,8 +15165,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13720,8 +15204,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13753,8 +15243,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13786,8 +15282,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13819,8 +15321,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13852,8 +15360,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13885,8 +15399,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13918,8 +15438,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13951,8 +15477,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +15513,19 @@
         <v>-931.8672375201904</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J412" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14017,8 +15557,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14050,8 +15596,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14083,8 +15635,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +15671,19 @@
         <v>-857.0235375201903</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J416" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14149,8 +15715,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14179,11 +15751,19 @@
         <v>-831.2317375201903</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>16030</v>
+      </c>
+      <c r="J418" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14212,11 +15792,19 @@
         <v>-714.1923375201903</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J419" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14245,11 +15833,19 @@
         <v>-857.4023375201904</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>16030</v>
+      </c>
+      <c r="J420" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14278,11 +15874,19 @@
         <v>-857.4023375201904</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J421" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14311,11 +15915,19 @@
         <v>-857.4023375201904</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J422" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +15956,19 @@
         <v>-890.9023375201904</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J423" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +15997,19 @@
         <v>-890.8703375201903</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J424" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +16038,19 @@
         <v>-931.2702375201903</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J425" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +16079,19 @@
         <v>-931.2382375201903</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J426" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +16120,19 @@
         <v>-931.2702375201903</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J427" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +16161,19 @@
         <v>-931.2382375201903</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J428" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +16202,19 @@
         <v>-992.5157375201903</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J429" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +16243,19 @@
         <v>-992.4837375201903</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J430" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +16284,19 @@
         <v>-966.2828375201902</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J431" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +16325,19 @@
         <v>-966.2828375201902</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>16030</v>
+      </c>
+      <c r="J432" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +16366,19 @@
         <v>-1000.14033752019</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>16030</v>
+      </c>
+      <c r="J433" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +16407,19 @@
         <v>-999.2303375201902</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J434" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +16448,19 @@
         <v>-918.4303375201903</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J435" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14776,8 +16492,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14809,8 +16531,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14842,8 +16570,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14875,8 +16609,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14908,8 +16648,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14941,8 +16687,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,15 +16723,23 @@
         <v>-100.7399618572556</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L442" t="n">
-        <v>1</v>
-      </c>
-      <c r="M442" t="inlineStr"/>
+        <v>1.053052434456929</v>
+      </c>
+      <c r="M442" t="n">
+        <v>1.061855670103093</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -15466,7 +17226,7 @@
         <v>5759.617697613967</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +17259,7 @@
         <v>5524.075097613967</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +17292,7 @@
         <v>5228.272897613967</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +17325,7 @@
         <v>5003.473597613967</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +17358,7 @@
         <v>5003.473597613967</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +17391,7 @@
         <v>3851.021197613967</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +17424,7 @@
         <v>4792.122597613967</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +17457,7 @@
         <v>4456.215897613967</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +17490,7 @@
         <v>4452.420797613967</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +17523,7 @@
         <v>3212.363197613967</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15829,7 +17589,7 @@
         <v>3322.045397613967</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +17622,7 @@
         <v>3785.046297613967</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +17655,7 @@
         <v>3785.046297613967</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +17688,7 @@
         <v>3785.046297613967</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +17721,7 @@
         <v>3766.530597613967</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +17754,7 @@
         <v>4087.716297613967</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +17787,7 @@
         <v>3754.717197613967</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16192,7 +17952,7 @@
         <v>4117.796903374769</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16258,7 +18018,7 @@
         <v>3909.407103374769</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +18051,7 @@
         <v>3771.186403374769</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +18084,7 @@
         <v>3521.487203374769</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16456,7 +18216,7 @@
         <v>3733.951703374769</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +18249,7 @@
         <v>3718.441703374769</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16555,7 +18315,7 @@
         <v>3633.248303374769</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +18348,7 @@
         <v>3498.588603374768</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +18381,7 @@
         <v>3498.588603374768</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16687,7 +18447,7 @@
         <v>3143.032703374769</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +18480,7 @@
         <v>3190.170703374768</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +18513,7 @@
         <v>2930.199603374768</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +18546,7 @@
         <v>2926.853603374768</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +18579,7 @@
         <v>3413.819403374768</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19558,14 +21318,10 @@
         <v>977.0702561378671</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>15230</v>
-      </c>
-      <c r="J581" t="n">
-        <v>15230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
@@ -19595,19 +21351,11 @@
         <v>977.0702561378671</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>15230</v>
-      </c>
-      <c r="J582" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19636,19 +21384,11 @@
         <v>910.2259561378671</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>15230</v>
-      </c>
-      <c r="J583" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19677,19 +21417,11 @@
         <v>916.8550561378671</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>15210</v>
-      </c>
-      <c r="J584" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19718,19 +21450,11 @@
         <v>917.1695561378671</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>15230</v>
-      </c>
-      <c r="J585" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19759,19 +21483,11 @@
         <v>917.1695561378671</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>15320</v>
-      </c>
-      <c r="J586" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19800,19 +21516,11 @@
         <v>895.1009561378671</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>15320</v>
-      </c>
-      <c r="J587" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19841,19 +21549,11 @@
         <v>953.6776561378671</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>15240</v>
-      </c>
-      <c r="J588" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19882,19 +21582,11 @@
         <v>953.6776561378671</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>15320</v>
-      </c>
-      <c r="J589" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19923,19 +21615,11 @@
         <v>1003.677656137867</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>15320</v>
-      </c>
-      <c r="J590" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19964,19 +21648,11 @@
         <v>1005.990156137867</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>15370</v>
-      </c>
-      <c r="J591" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20005,25 +21681,17 @@
         <v>950.3190561378671</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>15400</v>
-      </c>
-      <c r="J592" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
       <c r="M592" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest REP.xlsx
+++ b/BackTest/2020-01-20 BackTest REP.xlsx
@@ -2629,17 +2629,11 @@
         <v>-1046.300528793255</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>15900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2668,17 +2662,11 @@
         <v>-1176.300028793255</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>15860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2707,17 +2695,11 @@
         <v>-1176.300028793255</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2746,17 +2728,11 @@
         <v>-1176.300028793255</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2785,17 +2761,11 @@
         <v>-1196.644328793255</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>15840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2824,17 +2794,11 @@
         <v>-1147.849928793255</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2863,17 +2827,11 @@
         <v>-1147.849928793255</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2902,17 +2860,11 @@
         <v>-1147.849928793255</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2941,17 +2893,11 @@
         <v>-1149.841828793255</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2980,17 +2926,11 @@
         <v>-1144.529328793255</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>15830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3019,17 +2959,11 @@
         <v>-1136.687028793255</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3058,17 +2992,11 @@
         <v>-533.6887287932555</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>15860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3097,17 +3025,11 @@
         <v>-746.1208287932554</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>15880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3136,17 +3058,11 @@
         <v>-354.9935287932555</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>15810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3175,17 +3091,11 @@
         <v>-331.6865287932554</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>15840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3214,17 +3124,11 @@
         <v>-332.9565287932554</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3253,17 +3157,11 @@
         <v>-332.9565287932554</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3292,17 +3190,11 @@
         <v>-338.2631287932554</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>15840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3331,17 +3223,11 @@
         <v>-338.2631287932554</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>15820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3370,17 +3256,11 @@
         <v>-338.2631287932554</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>15820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3409,17 +3289,11 @@
         <v>-333.7131287932554</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>15820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3448,17 +3322,11 @@
         <v>-536.3883287932554</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>15860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3487,17 +3355,11 @@
         <v>-294.4683287932554</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>15780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3526,17 +3388,11 @@
         <v>-296.4780287932554</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>15840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3565,17 +3421,11 @@
         <v>-296.4780287932554</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3604,17 +3454,11 @@
         <v>-313.7798287932554</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>15800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3643,17 +3487,11 @@
         <v>-313.7798287932554</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>15790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3682,17 +3520,11 @@
         <v>-355.4401287932554</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>15790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3721,17 +3553,11 @@
         <v>-712.7234287932554</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>15780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3760,17 +3586,11 @@
         <v>-712.7234287932554</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3799,17 +3619,11 @@
         <v>-745.9470287932554</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3838,17 +3652,11 @@
         <v>-745.9470287932554</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>15700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3877,17 +3685,11 @@
         <v>-745.8670287932554</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3916,17 +3718,11 @@
         <v>-831.5332287932554</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>15770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3955,17 +3751,11 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>15680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3994,17 +3784,11 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>15800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4033,17 +3817,11 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>15800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4072,17 +3850,11 @@
         <v>-725.9012287932553</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>15800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4111,17 +3883,11 @@
         <v>-723.8816287932553</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>15800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4154,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4191,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4228,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4265,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4302,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4339,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4376,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4413,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4450,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4487,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4524,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4561,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4598,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4635,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4672,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4709,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4746,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4783,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4820,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4857,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4894,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4931,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4968,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5042,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5079,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5116,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5153,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5190,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5227,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5264,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5297,13 +4939,15 @@
         <v>-1249.498928793255</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>15850</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5371,9 +5015,11 @@
         <v>-1191.954028793255</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>15890</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5630,9 +5276,11 @@
         <v>-1266.071728793255</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>16000</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5667,9 +5315,11 @@
         <v>-1376.071728793255</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>16000</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5704,9 +5354,11 @@
         <v>-1371.150628793255</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>15950</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5741,9 +5393,11 @@
         <v>-1216.258428793255</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>16000</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5778,9 +5432,11 @@
         <v>-894.2467287932548</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>16100</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -6148,9 +5804,11 @@
         <v>-980.6954287932549</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>15980</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6185,9 +5843,11 @@
         <v>-953.8246287932549</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>15820</v>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6261,9 +5921,11 @@
         <v>-953.8246287932549</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>15900</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6337,9 +5999,11 @@
         <v>-984.5771287932548</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>15950</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6491,11 +6155,9 @@
         <v>-690.0687287932548</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>15830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6569,11 +6231,9 @@
         <v>-800.1687287932548</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>15800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6647,11 +6307,9 @@
         <v>-936.8305287932548</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>15780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6686,11 +6344,9 @@
         <v>-976.8750287932547</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>15720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6803,11 +6459,9 @@
         <v>-1159.460828793255</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>15780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6998,11 +6652,9 @@
         <v>-1739.277128793255</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>15540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -7037,11 +6689,9 @@
         <v>-1664.631828793255</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>15670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7076,11 +6726,9 @@
         <v>-1677.431828793255</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>15700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7115,11 +6763,9 @@
         <v>-1689.565728793255</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>15690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7427,9 +7073,11 @@
         <v>-1612.365528793255</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>15750</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7893,9 +7541,11 @@
         <v>-1815.487919099378</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>15870</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7930,9 +7580,11 @@
         <v>-1735.487919099378</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>15730</v>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7967,9 +7619,11 @@
         <v>-1731.507119099378</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>15740</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8004,9 +7658,11 @@
         <v>-1626.090819099378</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>15790</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -8041,9 +7697,11 @@
         <v>-1461.109719099378</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>15880</v>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -8078,9 +7736,11 @@
         <v>-1668.999719099378</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>15910</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8115,9 +7775,11 @@
         <v>-1664.946019099378</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>15800</v>
+      </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8152,9 +7814,11 @@
         <v>-1666.946019099378</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>15890</v>
+      </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -8189,9 +7853,11 @@
         <v>-1672.696019099378</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>15850</v>
+      </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -8226,9 +7892,11 @@
         <v>-1671.703719099378</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>15750</v>
+      </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -8263,9 +7931,11 @@
         <v>-1956.116619099378</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>15800</v>
+      </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8300,9 +7970,11 @@
         <v>-1952.288419099378</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>15750</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8337,9 +8009,11 @@
         <v>-1971.739119099378</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>15800</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8374,9 +8048,11 @@
         <v>-1967.739119099378</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>15750</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8411,9 +8087,11 @@
         <v>-2081.236219099378</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>15800</v>
+      </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -8448,9 +8126,11 @@
         <v>-1976.253919099378</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>15750</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8485,9 +8165,11 @@
         <v>-1902.565919099378</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>15800</v>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8522,9 +8204,11 @@
         <v>-1593.978019099378</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>15830</v>
+      </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8559,9 +8243,11 @@
         <v>-1593.978019099378</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>15840</v>
+      </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -8596,9 +8282,11 @@
         <v>-1398.819419099378</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>15840</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8633,9 +8321,11 @@
         <v>-1398.819419099378</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>15900</v>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8670,9 +8360,11 @@
         <v>-1398.819419099378</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>15900</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8707,9 +8399,11 @@
         <v>-1262.790119099378</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>15900</v>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8744,9 +8438,11 @@
         <v>-1262.790119099378</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>15950</v>
+      </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8781,9 +8477,11 @@
         <v>-912.9373551639344</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>15950</v>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8818,9 +8516,11 @@
         <v>-926.2379162611912</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>16110</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8855,9 +8555,11 @@
         <v>-934.7266162611912</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>16040</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8892,9 +8594,11 @@
         <v>-934.7266162611912</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>15930</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8929,9 +8633,11 @@
         <v>-934.7266162611912</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>15930</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8966,9 +8672,11 @@
         <v>-960.7266162611912</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>15930</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9003,9 +8711,11 @@
         <v>-959.6895162611912</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>15840</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -9040,9 +8750,11 @@
         <v>-959.6551162611912</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>15870</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9077,9 +8789,11 @@
         <v>-959.6551162611912</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>15930</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -9114,9 +8828,11 @@
         <v>-959.6551162611912</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>15930</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9151,9 +8867,11 @@
         <v>-959.6551162611912</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>15930</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9188,9 +8906,11 @@
         <v>-959.5761162611913</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>15930</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9225,9 +8945,11 @@
         <v>-816.6693162611913</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>15980</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9262,9 +8984,11 @@
         <v>-855.6693162611913</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>16010</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9299,9 +9023,11 @@
         <v>-845.6801162611913</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>15960</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9336,9 +9062,11 @@
         <v>-845.6121162611913</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>15970</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9373,9 +9101,11 @@
         <v>-845.6121162611913</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>16030</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9410,9 +9140,11 @@
         <v>-840.7661162611913</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>16030</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9447,9 +9179,11 @@
         <v>-840.7992162611913</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>16040</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9484,9 +9218,11 @@
         <v>-840.7992162611913</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>15990</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9521,9 +9257,11 @@
         <v>-840.7992162611913</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>15990</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -9558,9 +9296,11 @@
         <v>-856.3981162611913</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>15990</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9595,9 +9335,11 @@
         <v>-956.6337162611912</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>15980</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9632,9 +9374,11 @@
         <v>-956.6337162611912</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>15960</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9669,9 +9413,11 @@
         <v>-956.6337162611912</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>15960</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9706,9 +9452,11 @@
         <v>-956.5587162611912</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>15960</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9743,9 +9491,11 @@
         <v>-947.5937162611912</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>16020</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9780,9 +9530,11 @@
         <v>-947.5937162611912</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>16040</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9817,9 +9569,11 @@
         <v>-845.018003177079</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>16040</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9854,9 +9608,11 @@
         <v>-848.050003177079</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>16050</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9891,9 +9647,11 @@
         <v>-844.5190031770791</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>15960</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9928,9 +9686,11 @@
         <v>-844.5190031770791</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>16060</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9965,9 +9725,11 @@
         <v>-849.5190031770791</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>16060</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -10002,9 +9764,11 @@
         <v>-793.8971126298154</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>16050</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -10039,9 +9803,11 @@
         <v>-793.8971126298154</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>16080</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -10076,9 +9842,11 @@
         <v>-808.8971126298154</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>16080</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -10113,9 +9881,11 @@
         <v>-808.8604126298154</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>16000</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10150,9 +9920,11 @@
         <v>-815.7112126298155</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>16070</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10187,9 +9959,11 @@
         <v>-813.9112126298155</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>16000</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10224,9 +9998,11 @@
         <v>-882.2531126298155</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>16030</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10261,9 +10037,11 @@
         <v>-882.2531126298155</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>15990</v>
+      </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10298,9 +10076,11 @@
         <v>-886.8771126298155</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>15990</v>
+      </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10335,9 +10115,11 @@
         <v>-886.6271126298155</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>15970</v>
+      </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10372,9 +10154,11 @@
         <v>-1011.182812629816</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>16040</v>
+      </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10409,9 +10193,11 @@
         <v>-1011.182812629816</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>15970</v>
+      </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10446,9 +10232,11 @@
         <v>-1011.182812629816</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>15970</v>
+      </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10483,9 +10271,11 @@
         <v>-958.1828126298155</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>15970</v>
+      </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10520,9 +10310,11 @@
         <v>-986.1828126298155</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>16010</v>
+      </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10557,9 +10349,11 @@
         <v>-985.1828126298155</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>15970</v>
+      </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10594,9 +10388,11 @@
         <v>-1005.182812629816</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>16020</v>
+      </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10631,9 +10427,11 @@
         <v>-1314.459912629816</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>15960</v>
+      </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -12333,16 +12131,18 @@
         <v>-393.6223375201903</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L326" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
       <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
@@ -12368,11 +12168,15 @@
         <v>-393.6533375201903</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12405,7 +12209,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12438,7 +12246,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12471,7 +12283,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12504,7 +12320,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12537,7 +12357,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12570,7 +12394,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12603,7 +12431,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12636,7 +12468,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12669,7 +12505,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12702,7 +12542,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12735,7 +12579,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12768,7 +12616,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12801,7 +12653,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12834,7 +12690,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12867,7 +12727,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12900,7 +12764,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12933,7 +12801,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12966,7 +12838,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12999,7 +12875,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13032,7 +12912,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13065,7 +12949,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13098,7 +12986,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13131,7 +13023,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13164,7 +13060,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13197,7 +13097,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13230,7 +13134,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13263,7 +13171,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13296,7 +13208,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13329,7 +13245,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13362,7 +13282,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13395,7 +13319,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13424,15 +13352,15 @@
         <v>-468.4569375201904</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J359" t="n">
-        <v>16020</v>
-      </c>
-      <c r="K359" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13464,12 +13392,10 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L360" t="n">
@@ -13500,17 +13426,13 @@
         <v>-468.4569375201904</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J361" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L361" t="n">
@@ -13541,17 +13463,13 @@
         <v>-468.4569375201904</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J362" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L362" t="n">
@@ -13582,14 +13500,10 @@
         <v>-380.8129375201904</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J363" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13623,14 +13537,10 @@
         <v>-567.0355375201905</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>16190</v>
-      </c>
-      <c r="J364" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13664,14 +13574,10 @@
         <v>-566.9715375201905</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J365" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13705,14 +13611,10 @@
         <v>-452.4274375201905</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>16190</v>
-      </c>
-      <c r="J366" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13746,14 +13648,10 @@
         <v>-452.4594375201905</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>16200</v>
-      </c>
-      <c r="J367" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13787,14 +13685,10 @@
         <v>-452.4914375201905</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>16190</v>
-      </c>
-      <c r="J368" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13828,14 +13722,10 @@
         <v>-452.5234375201904</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>16180</v>
-      </c>
-      <c r="J369" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13869,14 +13759,10 @@
         <v>-598.8809375201904</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>16170</v>
-      </c>
-      <c r="J370" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13910,14 +13796,10 @@
         <v>-598.8489375201904</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>16090</v>
-      </c>
-      <c r="J371" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13951,14 +13833,10 @@
         <v>-598.8809375201904</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>16160</v>
-      </c>
-      <c r="J372" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13995,9 +13873,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14034,9 +13910,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14073,9 +13947,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14112,9 +13984,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14151,9 +14021,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14190,9 +14058,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14229,9 +14095,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14268,9 +14132,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14307,9 +14169,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14346,9 +14206,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14385,9 +14243,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14424,9 +14280,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14463,9 +14317,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14502,9 +14354,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14541,9 +14391,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14580,9 +14428,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14619,9 +14465,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14658,9 +14502,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14697,9 +14539,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14736,9 +14576,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14775,9 +14613,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14814,9 +14650,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14853,9 +14687,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14892,9 +14724,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14931,9 +14761,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14970,9 +14798,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15009,9 +14835,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15048,9 +14872,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15087,9 +14909,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15126,9 +14946,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,9 +14983,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15204,9 +15020,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15243,9 +15057,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15282,9 +15094,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15321,9 +15131,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15360,9 +15168,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15399,9 +15205,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15438,9 +15242,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15477,9 +15279,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15513,14 +15313,10 @@
         <v>-931.8672375201904</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J412" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15557,9 +15353,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15596,9 +15390,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15635,9 +15427,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15671,14 +15461,10 @@
         <v>-857.0235375201903</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J416" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15715,9 +15501,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15751,14 +15535,10 @@
         <v>-831.2317375201903</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>16030</v>
-      </c>
-      <c r="J418" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15792,14 +15572,10 @@
         <v>-714.1923375201903</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J419" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15833,14 +15609,10 @@
         <v>-857.4023375201904</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>16030</v>
-      </c>
-      <c r="J420" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15874,14 +15646,10 @@
         <v>-857.4023375201904</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J421" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15915,14 +15683,10 @@
         <v>-857.4023375201904</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J422" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15956,14 +15720,10 @@
         <v>-890.9023375201904</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J423" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15997,14 +15757,10 @@
         <v>-890.8703375201903</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J424" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16038,14 +15794,10 @@
         <v>-931.2702375201903</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J425" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16079,14 +15831,10 @@
         <v>-931.2382375201903</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J426" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16120,14 +15868,10 @@
         <v>-931.2702375201903</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J427" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16161,14 +15905,10 @@
         <v>-931.2382375201903</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J428" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16202,14 +15942,10 @@
         <v>-992.5157375201903</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J429" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16243,14 +15979,10 @@
         <v>-992.4837375201903</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J430" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16284,14 +16016,10 @@
         <v>-966.2828375201902</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J431" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16325,14 +16053,10 @@
         <v>-966.2828375201902</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>16030</v>
-      </c>
-      <c r="J432" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16366,14 +16090,10 @@
         <v>-1000.14033752019</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>16030</v>
-      </c>
-      <c r="J433" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16407,14 +16127,10 @@
         <v>-999.2303375201902</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J434" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16448,14 +16164,10 @@
         <v>-918.4303375201903</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J435" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16492,9 +16204,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16531,9 +16241,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16570,9 +16278,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16609,9 +16315,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16648,9 +16352,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16687,9 +16389,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16723,23 +16423,19 @@
         <v>-100.7399618572556</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L442" t="n">
-        <v>1.053052434456929</v>
-      </c>
-      <c r="M442" t="n">
-        <v>1.061855670103093</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -16768,7 +16464,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16801,7 +16501,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16834,7 +16538,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16867,7 +16575,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16900,7 +16612,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16933,7 +16649,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16966,7 +16686,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16999,7 +16723,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17032,7 +16760,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17065,7 +16797,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17098,7 +16834,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17127,14 +16867,16 @@
         <v>5729.071599911497</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="n">
-        <v>1</v>
-      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="inlineStr"/>
     </row>
     <row r="455">
@@ -17160,7 +16902,7 @@
         <v>5615.872998762732</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17193,7 +16935,7 @@
         <v>6108.133397613967</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17226,7 +16968,7 @@
         <v>5759.617697613967</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17259,7 +17001,7 @@
         <v>5524.075097613967</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17292,7 +17034,7 @@
         <v>5228.272897613967</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17325,7 +17067,7 @@
         <v>5003.473597613967</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17556,7 +17298,7 @@
         <v>3442.234597613967</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17589,7 +17331,7 @@
         <v>3322.045397613967</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17622,7 +17364,7 @@
         <v>3785.046297613967</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17655,7 +17397,7 @@
         <v>3785.046297613967</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17688,7 +17430,7 @@
         <v>3785.046297613967</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17721,7 +17463,7 @@
         <v>3766.530597613967</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17754,7 +17496,7 @@
         <v>4087.716297613967</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17787,7 +17529,7 @@
         <v>3754.717197613967</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17952,7 +17694,7 @@
         <v>4117.796903374769</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18018,7 +17760,7 @@
         <v>3909.407103374769</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18051,7 +17793,7 @@
         <v>3771.186403374769</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18084,7 +17826,7 @@
         <v>3521.487203374769</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
